--- a/Forecasts/Imperial.xlsx
+++ b/Forecasts/Imperial.xlsx
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2021-03-18 09:30:12"</t>
+    <t xml:space="preserve">[1] "2021-03-18 10:27:53"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>

--- a/Forecasts/Imperial.xlsx
+++ b/Forecasts/Imperial.xlsx
@@ -7472,7 +7472,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2021-04-20 09:31:57"</t>
+    <t xml:space="preserve">[1] "2021-04-20 11:51:57"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>
